--- a/HaierMDM/银行通用接口/银行(1).xlsx
+++ b/HaierMDM/银行通用接口/银行(1).xlsx
@@ -4,19 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$9</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="108">
   <si>
     <t>ROW_ID</t>
   </si>
@@ -45,9 +50,6 @@
     <t>VARCHAR2(15)</t>
   </si>
   <si>
-    <t>银行代码 BANKL 银行代码(mpc)</t>
-  </si>
-  <si>
     <t>BANK_NAME</t>
   </si>
   <si>
@@ -72,130 +74,135 @@
     <t>住宅号及街道 STRAS 城市编码(mpc)</t>
   </si>
   <si>
+    <t>城市 ORT01 城市名称(mpc)</t>
+  </si>
+  <si>
+    <t>BANK_CATEGORY</t>
+  </si>
+  <si>
+    <t>VARCHAR2(80)</t>
+  </si>
+  <si>
+    <t>分行 BRNCH 银行大类(mpc)</t>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V(模糊)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V(模糊)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V(模糊)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> row_id            VARCHAR2(20) not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bank_country      VARCHAR2(3),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bank_branch_code  VARCHAR2(15),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bank_name         VARCHAR2(120),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  region            VARCHAR2(3),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  street_room       VARCHAR2(70),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  city_street_room  VARCHAR2(70),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bank_category     VARCHAR2(80),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  swift             VARCHAR2(11),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bank_group        VARCHAR2(2),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  post_bank_flag    CHAR(1),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bank_code_other   VARCHAR2(15),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  created_by        VARCHAR2(50),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  created           DATE default sysdate,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  last_upd_by       VARCHAR2(50),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  last_upd          DATE default sysdate,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  modification_num  NUMBER(10) default 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  delete_flag       CHAR(1) default '0',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  active_flag       CHAR(1) default '1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  remark            VARCHAR2(255),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  version           NUMBER(10,3) default 1.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  last_version_flag CHAR(1) default '1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  operate_status    VARCHAR2(10) default 'NVL',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  lock_flag         CHAR(1) default '0',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  action_batch_id   VARCHAR2(20),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return_batch_id   VARCHAR2(20),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  for_gvs           CHAR(1) default '1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  audit_flag        CHAR(1) default '0'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>CITY_STREET_ROOM</t>
-  </si>
-  <si>
-    <t>城市 ORT01 城市名称(mpc)</t>
-  </si>
-  <si>
-    <t>BANK_CATEGORY</t>
-  </si>
-  <si>
-    <t>VARCHAR2(80)</t>
-  </si>
-  <si>
-    <t>分行 BRNCH 银行大类(mpc)</t>
-  </si>
-  <si>
-    <t>输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V(模糊)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V(模糊)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V(模糊)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> row_id            VARCHAR2(20) not null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  bank_country      VARCHAR2(3),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  bank_branch_code  VARCHAR2(15),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  bank_name         VARCHAR2(120),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  region            VARCHAR2(3),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  street_room       VARCHAR2(70),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  city_street_room  VARCHAR2(70),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  bank_category     VARCHAR2(80),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  swift             VARCHAR2(11),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  bank_group        VARCHAR2(2),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  post_bank_flag    CHAR(1),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  bank_code_other   VARCHAR2(15),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  created_by        VARCHAR2(50),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  created           DATE default sysdate,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  last_upd_by       VARCHAR2(50),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  last_upd          DATE default sysdate,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  modification_num  NUMBER(10) default 0,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  delete_flag       CHAR(1) default '0',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  active_flag       CHAR(1) default '1',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  remark            VARCHAR2(255),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  version           NUMBER(10,3) default 1.0,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  last_version_flag CHAR(1) default '1',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  operate_status    VARCHAR2(10) default 'NVL',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  lock_flag         CHAR(1) default '0',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  action_batch_id   VARCHAR2(20),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  return_batch_id   VARCHAR2(20),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  for_gvs           CHAR(1) default '1',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  audit_flag        CHAR(1) default '0'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK_COUNTRY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   create or replace type general_bank_type object (
@@ -204,7 +211,6 @@
    bank_name         VARCHAR2(120),
    region            VARCHAR2(3),
    street_room       VARCHAR2(70),
-   city_street_room  VARCHAR2(70),
    city_street_room  VARCHAR2(70),
    bank_category     VARCHAR2(80),
    extend_key1       varchar(255),
@@ -215,12 +221,373 @@
   create or replace type general_bank_table as table of general_bank_type;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>BANK_BRANCH_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行代码 BANKL 银行代码(mpc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK_CATEGORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankBranchCode</t>
+  </si>
+  <si>
+    <t>bankName</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>cityStreetRoom</t>
+  </si>
+  <si>
+    <t>bankCategory</t>
+  </si>
+  <si>
+    <t>方法名称</t>
+  </si>
+  <si>
+    <t>参数列表</t>
+  </si>
+  <si>
+    <t>参数名称</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>系统编号</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>模块标识</t>
+  </si>
+  <si>
+    <r>
+      <t>MDM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名</t>
+    </r>
+  </si>
+  <si>
+    <t>当前页</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>返回值</t>
+  </si>
+  <si>
+    <t>返回表数据</t>
+  </si>
+  <si>
+    <t>返回状态</t>
+  </si>
+  <si>
+    <t>错误列表</t>
+  </si>
+  <si>
+    <t>错误代码</t>
+  </si>
+  <si>
+    <t>错误概述</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>接口表中没有记录</t>
+  </si>
+  <si>
+    <t>查询页码超出了范围！</t>
+  </si>
+  <si>
+    <r>
+      <t>调用存储过程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>prc_user_tab_columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>异常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>概要说明</t>
+  </si>
+  <si>
+    <r>
+      <t>通过系统编号、模块标识、表名、页码，拼接字符串，查询出数据进行传输，传输时采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的格式进行传递</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>……</t>
+    </r>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>银行代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial Rounded MT Bold"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>银行名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial Rounded MT Bold"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial Rounded MT Bold"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>州、省、县</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial Rounded MT Bold"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>城市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial Rounded MT Bold"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>银行大类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>系统编号在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MDM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中不存在</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,16 +602,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0E0E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -252,15 +662,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,10 +1112,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -581,13 +1131,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +1148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -612,12 +1162,12 @@
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -626,38 +1176,38 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -666,73 +1216,90 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G9">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -754,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I41" sqref="I31:I41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -768,157 +1335,190 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="270" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -926,4 +1526,396 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>